--- a/data/trans_dic/P36B_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Estudios-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,6 +633,15 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,15 +656,60 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>25,71%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>42,73%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28,94%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>69,47%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28,47%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>49,46%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>37,79%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>73,44%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27,26%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>46,63%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>33,97%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>71,88%</t>
         </is>
@@ -579,15 +724,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>23,16; 28,35</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>39,79; 46,3</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26,11; 32,68</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>65,51; 72,94</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>26,21; 30,83</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>46,54; 52,09</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>34,83; 40,99</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>70,46; 75,99</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25,39; 29,17</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>44,18; 48,64</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>31,49; 36,13</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>69,37; 73,82</t>
         </is>
@@ -606,15 +796,60 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>17,04%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>32,04%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>70,43%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26,18%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>41,78%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>32,3%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>77,1%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>21,47%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>36,63%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>28,44%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>73,83%</t>
         </is>
@@ -629,15 +864,60 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>15,12; 18,8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29,77; 34,07</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>22,88; 26,83</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>67,92; 73,38</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>24,0; 28,5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>39,27; 43,99</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30,14; 34,4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>75,12; 80,95</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20,03; 22,81</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>34,92; 38,24</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26,99; 29,69</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>71,99; 75,93</t>
         </is>
@@ -656,15 +936,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>24,12%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>38,16%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37,32%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>74,58%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31,81%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>53,44%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>41,77%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>81,34%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,69%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>45,61%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>39,55%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>78,06%</t>
         </is>
@@ -679,15 +1004,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>20,05; 27,93</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33,35; 43,26</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>32,87; 42,12</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>71,1; 78,18</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>27,47; 36,61</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>48,36; 58,14</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>37,73; 45,78</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>78,27; 83,92</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24,93; 30,62</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>42,19; 49,56</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36,55; 42,71</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>75,81; 80,42</t>
         </is>
@@ -706,15 +1076,60 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>35,94%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27,72%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>71,11%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>46,18%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35,32%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>77,09%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>41,16%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>31,61%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>74,28%</t>
         </is>
@@ -729,15 +1144,60 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>19,55; 22,29</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>34,03; 37,57</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26,14; 29,36</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>69,37; 73,19</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>26,39; 29,37</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>44,45; 47,93</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>33,68; 36,99</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>75,6; 79,55</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>23,4; 25,59</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>39,86; 42,36</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>30,38; 32,8</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>72,95; 75,71</t>
         </is>
@@ -751,12 +1211,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P36B_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,16; 28,35</t>
+          <t>23,19; 28,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,79; 46,3</t>
+          <t>39,41; 46,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,11; 32,68</t>
+          <t>25,91; 31,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>65,51; 72,94</t>
+          <t>65,76; 73,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,21; 30,83</t>
+          <t>26,08; 31,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,54; 52,09</t>
+          <t>46,66; 52,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,83; 40,99</t>
+          <t>34,72; 41,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>70,46; 75,99</t>
+          <t>70,55; 75,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,39; 29,17</t>
+          <t>25,49; 29,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44,18; 48,64</t>
+          <t>44,37; 48,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,49; 36,13</t>
+          <t>31,45; 36,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>69,37; 73,82</t>
+          <t>69,56; 74,05</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 18,8</t>
+          <t>15,26; 19,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,77; 34,07</t>
+          <t>29,91; 34,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,88; 26,83</t>
+          <t>22,91; 26,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,92; 73,38</t>
+          <t>67,94; 73,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,0; 28,5</t>
+          <t>23,93; 28,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,27; 43,99</t>
+          <t>39,43; 44,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,14; 34,4</t>
+          <t>30,13; 34,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75,12; 80,95</t>
+          <t>75,0; 80,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,03; 22,81</t>
+          <t>19,87; 22,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,92; 38,24</t>
+          <t>34,84; 38,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,99; 29,69</t>
+          <t>27,09; 30,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>71,99; 75,93</t>
+          <t>72,09; 76,48</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,05; 27,93</t>
+          <t>20,31; 28,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,35; 43,26</t>
+          <t>33,43; 42,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,87; 42,12</t>
+          <t>32,87; 41,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>71,1; 78,18</t>
+          <t>70,86; 78,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,47; 36,61</t>
+          <t>27,46; 36,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,36; 58,14</t>
+          <t>48,64; 58,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,73; 45,78</t>
+          <t>37,52; 46,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>78,27; 83,92</t>
+          <t>78,09; 83,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,93; 30,62</t>
+          <t>25,25; 31,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>42,19; 49,56</t>
+          <t>42,4; 49,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,55; 42,71</t>
+          <t>36,19; 42,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>75,81; 80,42</t>
+          <t>75,83; 80,49</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,55; 22,29</t>
+          <t>19,56; 22,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,03; 37,57</t>
+          <t>34,24; 37,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,14; 29,36</t>
+          <t>26,14; 29,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>69,37; 73,19</t>
+          <t>69,24; 73,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,39; 29,37</t>
+          <t>26,28; 29,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,45; 47,93</t>
+          <t>44,44; 47,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,68; 36,99</t>
+          <t>33,66; 37,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>75,6; 79,55</t>
+          <t>75,73; 79,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,4; 25,59</t>
+          <t>23,49; 25,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,86; 42,36</t>
+          <t>39,89; 42,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,38; 32,8</t>
+          <t>30,46; 32,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>72,95; 75,71</t>
+          <t>73,1; 75,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>69,47%</t>
+          <t>68,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>73,44%</t>
+          <t>72,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>71,06%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>65,76; 73,26</t>
+          <t>64,36; 72,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>70,55; 75,97</t>
+          <t>70,18; 75,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>69,56; 74,05</t>
+          <t>68,68; 73,26</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>70,43%</t>
+          <t>71,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>77,1%</t>
+          <t>78,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>73,83%</t>
+          <t>75,03%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,94; 73,09</t>
+          <t>67,55; 82,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75,0; 80,66</t>
+          <t>75,35; 84,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>72,09; 76,48</t>
+          <t>72,16; 80,15</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74,58%</t>
+          <t>73,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>81,34%</t>
+          <t>81,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>78,06%</t>
+          <t>77,44%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>70,86; 78,3</t>
+          <t>69,98; 77,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>78,09; 83,87</t>
+          <t>77,8; 83,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>75,83; 80,49</t>
+          <t>75,15; 79,85</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>71,11%</t>
+          <t>71,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>77,09%</t>
+          <t>77,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>74,28%</t>
+          <t>74,77%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>69,24; 73,21</t>
+          <t>68,88; 77,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>75,73; 79,72</t>
+          <t>75,86; 81,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>73,1; 75,74</t>
+          <t>72,86; 77,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,19; 28,51</t>
+          <t>23,03; 28,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,41; 46,1</t>
+          <t>39,66; 45,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,91; 31,81</t>
+          <t>25,5; 32,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64,36; 72,21</t>
+          <t>64,24; 72,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,08; 31,17</t>
+          <t>25,89; 31,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,66; 52,49</t>
+          <t>46,8; 52,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,72; 41,2</t>
+          <t>34,52; 41,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>70,18; 75,45</t>
+          <t>70,4; 75,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,49; 29,16</t>
+          <t>25,39; 29,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44,37; 48,77</t>
+          <t>44,36; 48,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,45; 36,07</t>
+          <t>31,62; 36,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>68,68; 73,26</t>
+          <t>68,87; 73,28</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,26; 19,05</t>
+          <t>15,13; 18,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,91; 34,18</t>
+          <t>30,12; 34,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,91; 26,68</t>
+          <t>22,86; 26,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,55; 82,37</t>
+          <t>67,49; 80,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,93; 28,3</t>
+          <t>24,02; 28,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,43; 44,2</t>
+          <t>39,48; 44,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,13; 34,47</t>
+          <t>30,18; 34,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75,35; 84,13</t>
+          <t>75,28; 84,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,87; 22,93</t>
+          <t>20,05; 22,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,84; 38,24</t>
+          <t>35,15; 38,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,09; 30,04</t>
+          <t>27,01; 29,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>72,16; 80,15</t>
+          <t>72,16; 80,19</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,31; 28,03</t>
+          <t>20,65; 28,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,43; 42,42</t>
+          <t>33,43; 42,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,87; 41,38</t>
+          <t>33,19; 41,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69,98; 77,58</t>
+          <t>69,87; 77,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,46; 36,09</t>
+          <t>27,71; 36,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,64; 58,04</t>
+          <t>48,13; 58,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,52; 46,09</t>
+          <t>36,87; 45,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>77,8; 83,55</t>
+          <t>77,91; 83,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,25; 31,11</t>
+          <t>24,88; 30,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>42,4; 49,3</t>
+          <t>42,21; 49,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,19; 42,33</t>
+          <t>36,83; 42,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>75,15; 79,85</t>
+          <t>75,1; 79,64</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,56; 22,33</t>
+          <t>19,53; 22,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,24; 37,79</t>
+          <t>34,32; 37,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,14; 29,16</t>
+          <t>26,02; 29,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68,88; 77,94</t>
+          <t>68,89; 77,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,28; 29,32</t>
+          <t>26,32; 29,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,44; 47,93</t>
+          <t>44,49; 47,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,66; 37,02</t>
+          <t>33,65; 36,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>75,86; 81,95</t>
+          <t>75,85; 81,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,49; 25,52</t>
+          <t>23,34; 25,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,89; 42,34</t>
+          <t>39,97; 42,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,46; 32,78</t>
+          <t>30,44; 32,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>72,86; 77,91</t>
+          <t>72,87; 78,45</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume verduras y hortalizas a diario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1055</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1532</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>265060</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>414688</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>217768</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>351192</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>374382</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>661703</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>374219</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>549646</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>639442</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1076390</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>591987</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>900838</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>237438; 292360</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>384865; 445430</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>191888; 242255</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>330311; 370339</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>340462; 409160</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>626141; 700428</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>341774; 406361</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>530446; 569912</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>595610; 684095</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1023967; 1122758</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>551028; 633435</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>873084; 929007</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1427</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2252</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3679</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>288617</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>628644</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>510297</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1641580</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>415453</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>731053</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>638964</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1752638</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>704070</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1359697</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1149261</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3394217</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>256249; 321378</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>590845; 674709</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>471614; 548483</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1544016; 1850064</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>381101; 452093</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>690837; 776534</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>596947; 677007</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1683178; 1898052</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>657551; 754214</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1304532; 1424652</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1091649; 1212118</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3264463; 3627489</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>133025</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>183229</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>203327</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>477171</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>151527</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>244069</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>228574</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>535007</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>284552</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>427298</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>431900</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1012178</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>113887; 155255</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>160509; 205991</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>180835; 228355</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>451767; 501492</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>131995; 173343</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>219790; 267301</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>201747; 251026</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>514540; 553606</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>255765; 317650</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>395456; 459691</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>402254; 466901</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>981665; 1040907</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2416</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1512</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4143</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1579</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2662</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2034</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6559</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>686702</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1226560</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>931391</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2469943</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>941362</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1636825</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1241757</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2837291</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1628064</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2863385</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2173148</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5307234</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>639768; 736864</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1171249; 1285834</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>874375; 983453</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2375720; 2679760</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>889243; 996320</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1577008; 1698782</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1183047; 1296759</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2768584; 2990361</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1552715; 1698620</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2780522; 2959783</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2093081; 2257943</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5172524; 5569001</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>